--- a/biology/Botanique/Licuala_orbicularis/Licuala_orbicularis.xlsx
+++ b/biology/Botanique/Licuala_orbicularis/Licuala_orbicularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Licuala orbicularis est une espèce de plantes à fleurs de la familles des Arecaceae (les palmiers) et du genre Licuala[2]. Il est endémique du sud-ouest du Sarawak sur l'île de Bornéo[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Licuala orbicularis est une espèce de plantes à fleurs de la familles des Arecaceae (les palmiers) et du genre Licuala. Il est endémique du sud-ouest du Sarawak sur l'île de Bornéo.
 </t>
         </is>
       </c>
@@ -511,14 +523,86 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C’est un petit palmier avec des feuilles entières en forme de ventilateur circulaire, qui pousse comme plante de sous-canopée des forêts tropicales; dans les forêts mixtes de diptérocarpacées et de kerangas, dans les vallées humides et sur les pentes des collines, entre 20 et 550 mètres d'altitude[3].
-Taxinomie
-Licuala orbicularis a été décrit par Odoardo Beccari. et publié dans la revue Malesia; raccolta di osservazioni botaniche intorno alle piante dell'arcipelago Indo-Malese e Papuano , en 1886 [4].
-Étymologie
-Licuala: nom générique qui vient de la latinisation du nom vernaculaire, leko wala, soi-disant utilisé pour Licuala spinosa à Makassar, dans les Célèbes. (J. Dransfield, N. Uhl, C. Asmussen, W.J. Baker, M. Harley et C. Lewis. 2008)
-orbicularis : épithète latine signifiant « orbiculaire, circulaire », pour rendre compte de la forme assez remarquable de ses feuilles[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est un petit palmier avec des feuilles entières en forme de ventilateur circulaire, qui pousse comme plante de sous-canopée des forêts tropicales; dans les forêts mixtes de diptérocarpacées et de kerangas, dans les vallées humides et sur les pentes des collines, entre 20 et 550 mètres d'altitude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Licuala_orbicularis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Licuala_orbicularis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Licuala orbicularis a été décrit par Odoardo Beccari. et publié dans la revue Malesia; raccolta di osservazioni botaniche intorno alle piante dell'arcipelago Indo-Malese e Papuano , en 1886 .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Licuala_orbicularis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Licuala_orbicularis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Licuala: nom générique qui vient de la latinisation du nom vernaculaire, leko wala, soi-disant utilisé pour Licuala spinosa à Makassar, dans les Célèbes. (J. Dransfield, N. Uhl, C. Asmussen, W.J. Baker, M. Harley et C. Lewis. 2008)
+orbicularis : épithète latine signifiant « orbiculaire, circulaire », pour rendre compte de la forme assez remarquable de ses feuilles.
 </t>
         </is>
       </c>
